--- a/examples/complexTest.xlsx
+++ b/examples/complexTest.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\PHPComplex\examples\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="96" yWindow="60" windowWidth="22020" windowHeight="9528"/>
+    <workbookView xWindow="90" yWindow="60" windowWidth="22020" windowHeight="9525"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Real</t>
   </si>
@@ -49,6 +54,33 @@
   </si>
   <si>
     <t>IMDIV (Divide Into)</t>
+  </si>
+  <si>
+    <t>IMABS</t>
+  </si>
+  <si>
+    <t>IMARGUMENT</t>
+  </si>
+  <si>
+    <t>IMCONJUGATE</t>
+  </si>
+  <si>
+    <t>IMCOS</t>
+  </si>
+  <si>
+    <t>IMSIN</t>
+  </si>
+  <si>
+    <t>IMSQRT</t>
+  </si>
+  <si>
+    <t>IMLN</t>
+  </si>
+  <si>
+    <t>IMLOG10</t>
+  </si>
+  <si>
+    <t>IMLOG2</t>
   </si>
 </sst>
 </file>
@@ -111,6 +143,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -158,7 +193,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -193,7 +228,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -402,30 +437,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="5.77734375" customWidth="1"/>
-    <col min="6" max="6" width="5.88671875" customWidth="1"/>
-    <col min="7" max="7" width="3.21875" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.77734375" customWidth="1"/>
-    <col min="10" max="10" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.88671875" customWidth="1"/>
-    <col min="12" max="12" width="25.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="2.6640625" customWidth="1"/>
-    <col min="14" max="14" width="37.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="2.88671875" customWidth="1"/>
-    <col min="16" max="16" width="42.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="2.77734375" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" customWidth="1"/>
+    <col min="7" max="7" width="3.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.85546875" customWidth="1"/>
+    <col min="12" max="12" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.7109375" customWidth="1"/>
+    <col min="14" max="14" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2.85546875" customWidth="1"/>
+    <col min="16" max="16" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -452,7 +487,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -472,7 +507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>123</v>
       </c>
@@ -500,7 +535,7 @@
         <v>3.70731707317073</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>123.456</v>
       </c>
@@ -528,7 +563,7 @@
         <v>6.39103810264386</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>123.456</v>
       </c>
@@ -562,7 +597,7 @@
         <v>-5.79805546213226+3.44549131643853i</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>123.456</v>
       </c>
@@ -593,7 +628,7 @@
         <v>-5.68007260898141+3.63010083631928i</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-987.654</v>
       </c>
@@ -627,7 +662,7 @@
         <v>-0.0000328728124132457-0.00101143192122093i</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-987.654</v>
       </c>
@@ -659,6 +694,435 @@
       <c r="P8" t="str">
         <f>IMDIV(COMPLEX($D8,$E8),COMPLEX($A8,$B8))</f>
         <v>0.0000328728124132457+0.00101143192122093i</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>123</v>
+      </c>
+      <c r="D12">
+        <f>IMABS(COMPLEX($A12,$B12))</f>
+        <v>123</v>
+      </c>
+      <c r="E12">
+        <f>IMARGUMENT(COMPLEX($A12,$B12))</f>
+        <v>0</v>
+      </c>
+      <c r="H12" t="str">
+        <f>IMCONJUGATE(COMPLEX($A12,$B12))</f>
+        <v>123</v>
+      </c>
+      <c r="J12" t="str">
+        <f>IMCOS(COMPLEX($A12,$B12))</f>
+        <v>-0.887968906691855</v>
+      </c>
+      <c r="N12" t="str">
+        <f>IMSIN(COMPLEX($A12,$B12))</f>
+        <v>-0.459903490689591</v>
+      </c>
+      <c r="P12" t="str">
+        <f>IMSQRT(COMPLEX($A12,$B12))</f>
+        <v>11.0905365064094</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>123.456</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ref="D13:D19" si="0">IMABS(COMPLEX($A13,$B13))</f>
+        <v>123.456</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ref="E13:E19" si="1">IMARGUMENT(COMPLEX($A13,$B13))</f>
+        <v>0</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" ref="H13:H19" si="2">IMCONJUGATE(COMPLEX($A13,$B13))</f>
+        <v>123.456</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" ref="J13:J19" si="3">IMCOS(COMPLEX($A13,$B13))</f>
+        <v>-0.594713971092157</v>
+      </c>
+      <c r="N13" t="str">
+        <f t="shared" ref="N13:N19" si="4">IMSIN(COMPLEX($A13,$B13))</f>
+        <v>-0.803937368572824</v>
+      </c>
+      <c r="P13" t="str">
+        <f t="shared" ref="P13:P19" si="5">IMSQRT(COMPLEX($A13,$B13))</f>
+        <v>11.1110755554987</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>123.456</v>
+      </c>
+      <c r="B14">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>146.51482497003502</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>0.56867025520691139</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="2"/>
+        <v>123.456-78.9i</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="3"/>
+        <v>-5.48419347379507E+33+7.41356060959907E+33i</v>
+      </c>
+      <c r="N14" t="str">
+        <f t="shared" si="4"/>
+        <v>-7.41356060959907E+33-5.48419347379507E+33i</v>
+      </c>
+      <c r="P14" t="str">
+        <f t="shared" si="5"/>
+        <v>11.618322274968+3.39549885657727i</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>-987.654</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>987.654</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>3.1415926535897931</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="2"/>
+        <v>-987.654</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="3"/>
+        <v>0.36803011855732</v>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" si="4"/>
+        <v>-0.929813869457046</v>
+      </c>
+      <c r="P15" t="str">
+        <f t="shared" si="5"/>
+        <v>1.9251347547791E-15+31.4269629458527i</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>-987.654</v>
+      </c>
+      <c r="B16">
+        <v>-32.1</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>988.17550754711579</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>-3.1091028298189833</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="2"/>
+        <v>-987.654+32.1i</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="3"/>
+        <v>16058546551240.2-40571297167732.3i</v>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" si="4"/>
+        <v>-40571297167732.3-16058546551240.2i</v>
+      </c>
+      <c r="P16" t="str">
+        <f t="shared" si="5"/>
+        <v>0.510640552206661-31.4311112398776i</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>123.456</v>
+      </c>
+      <c r="B17">
+        <v>-78.900000000000006</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>146.51482497003502</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>-0.56867025520691139</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="2"/>
+        <v>123.456+78.9i</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="3"/>
+        <v>-5.48419347379507E+33-7.41356060959907E+33i</v>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" si="4"/>
+        <v>-7.41356060959907E+33+5.48419347379507E+33i</v>
+      </c>
+      <c r="P17" t="str">
+        <f t="shared" si="5"/>
+        <v>11.618322274968-3.39549885657727i</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="2"/>
+        <v>-i</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="3"/>
+        <v>1.54308063481524</v>
+      </c>
+      <c r="N18" t="str">
+        <f t="shared" si="4"/>
+        <v>1.1752011936438i</v>
+      </c>
+      <c r="P18" t="str">
+        <f t="shared" si="5"/>
+        <v>0.707106781186548+0.707106781186547i</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>-1</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>-1.5707963267948966</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="2"/>
+        <v>i</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="3"/>
+        <v>1.54308063481524</v>
+      </c>
+      <c r="N19" t="str">
+        <f t="shared" si="4"/>
+        <v>-1.1752011936438i</v>
+      </c>
+      <c r="P19" t="str">
+        <f t="shared" si="5"/>
+        <v>0.707106781186548-0.707106781186547i</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>123</v>
+      </c>
+      <c r="D22" t="str">
+        <f>IMLN(COMPLEX($A22,$B22))</f>
+        <v>4.81218435537242</v>
+      </c>
+      <c r="J22" t="str">
+        <f>IMLOG10(COMPLEX($A22,$B22))</f>
+        <v>2.0899051114394</v>
+      </c>
+      <c r="N22" t="str">
+        <f>IMLOG2(COMPLEX($A22,$B22))</f>
+        <v>6.94251450533924</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>123.456</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" ref="D23:D29" si="6">IMLN(COMPLEX($A23,$B23))</f>
+        <v>4.81588481728326</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" ref="J23:J29" si="7">IMLOG10(COMPLEX($A23,$B23))</f>
+        <v>2.09151220162777</v>
+      </c>
+      <c r="N23" t="str">
+        <f t="shared" ref="N23:N29" si="8">IMLOG2(COMPLEX($A23,$B23))</f>
+        <v>6.94785314338702</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>123.456</v>
+      </c>
+      <c r="B24">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="6"/>
+        <v>4.98712661767203+0.568670255206911i</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="7"/>
+        <v>2.16588157060779+0.246970353858876i</v>
+      </c>
+      <c r="N24" t="str">
+        <f t="shared" si="8"/>
+        <v>7.19490283960079+0.820417757088072i</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>-987.654</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="6"/>
+        <v>6.89533243398353+3.14159265358979i</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="7"/>
+        <v>2.99460482696756+1.36437635384184i</v>
+      </c>
+      <c r="N25" t="str">
+        <f t="shared" si="8"/>
+        <v>9.94786190778886+4.53236014182719i</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>-987.654</v>
+      </c>
+      <c r="B26">
+        <v>-32.1</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="6"/>
+        <v>6.89586032118962-3.10910282981898i</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="7"/>
+        <v>2.99483408546824-1.35026620266017i</v>
+      </c>
+      <c r="N26" t="str">
+        <f t="shared" si="8"/>
+        <v>9.94862348804324-4.48548723419369i</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>123.456</v>
+      </c>
+      <c r="B27">
+        <v>-78.900000000000006</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="6"/>
+        <v>4.98712661767203-0.568670255206911i</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="7"/>
+        <v>2.16588157060779-0.246970353858876i</v>
+      </c>
+      <c r="N27" t="str">
+        <f t="shared" si="8"/>
+        <v>7.19490283960079-0.820417757088072i</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="6"/>
+        <v>1.5707963267949i</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="7"/>
+        <v>0.682188176920921i</v>
+      </c>
+      <c r="N28" t="str">
+        <f t="shared" si="8"/>
+        <v>2.2661800709136i</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>-1</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="6"/>
+        <v>-1.5707963267949i</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="7"/>
+        <v>-0.682188176920921i</v>
+      </c>
+      <c r="N29" t="str">
+        <f t="shared" si="8"/>
+        <v>-2.2661800709136i</v>
       </c>
     </row>
   </sheetData>
@@ -667,7 +1131,7 @@
     <mergeCell ref="D1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -677,7 +1141,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -689,7 +1153,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
